--- a/data/工作流规则_否词.xlsx
+++ b/data/工作流规则_否词.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\trea自动生成代码\hzgr_trae_project_hub\keyword_classifier_by_workflow\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\uv_code_lib\keyword_classifier_by_workflow\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F21760-6024-43CE-9093-73D060D1C3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA061C6-3886-482E-8266-948038EF846D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5745" yWindow="5745" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$186</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="205">
   <si>
     <t>分类规则</t>
   </si>
@@ -646,6 +647,40 @@
   </si>
   <si>
     <t>电&lt;脑|话|商&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>分类标签</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东</t>
+  </si>
+  <si>
+    <t>江苏</t>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>山西</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -653,7 +688,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,6 +708,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1016,7 +1057,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -2517,11 +2558,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247C52B8-9C27-4155-B0D6-E8DC2058C9B6}">
   <dimension ref="A1:C186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -4572,5 +4613,331 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC50CD3-8FDC-4993-BE63-0C1DF47B9E95}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/工作流规则_否词.xlsx
+++ b/data/工作流规则_否词.xlsx
@@ -5,21 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\uv_code_lib\keyword_classifier_by_workflow\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github_code_lib\keyword_classifier_by_workflow\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA061C6-3886-482E-8266-948038EF846D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF687AD9-B8D7-422C-93FD-50D671DF0F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="5745" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$186</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$C$186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="208">
   <si>
     <t>分类规则</t>
   </si>
@@ -681,6 +683,17 @@
   </si>
   <si>
     <t>河北</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上层分类规则</t>
+  </si>
+  <si>
+    <t>省份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直辖市</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1057,7 +1070,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -2562,7 +2575,7 @@
       <selection sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -4621,11 +4634,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC50CD3-8FDC-4993-BE63-0C1DF47B9E95}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -4940,4 +4959,395 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9628558E-62AF-41DC-8BEC-B4B5F0397A38}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{9628558E-62AF-41DC-8BEC-B4B5F0397A38}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>